--- a/250312_또래지명 검사 정리.xlsx
+++ b/250312_또래지명 검사 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D43088-4955-4F92-B07A-FB74727A1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08655E18-BFB6-4D11-BF9C-952005A4A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B05B94D7-EB60-466C-9832-7E3F9B4E9A61}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="629">
   <si>
     <t>scale</t>
   </si>
@@ -2846,10 +2846,6 @@
   </si>
   <si>
     <t>현장의 또래관계 데이터가 어떠한 형태를 나타내는지 정확히 알수 없지만, 로직 정리를 위해 다음과 같이 모의 데이터를 생성하였습니다. (Sheet에서 확인 가능합니다.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 학생평가 모의데이터 : 교사가 학생의 학습 성취도를 1-5점으로 평가한 데이터 (정규분포)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2938,10 +2934,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 교사보고 모의데이터 : 교사가 학습을 대상으로 스스로 응답한 데이터 (정규분포)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학생평가(5점 리커트)</t>
   </si>
   <si>
@@ -3312,6 +3304,18 @@
   </si>
   <si>
     <t>* 단순 일치율 : 88.88%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PN1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 학생평가 모의데이터 : 교사가 학생을 1-5점으로 평가한 데이터 (정규분포)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 교사보고 모의데이터 : 교사가 학급을 대상으로 스스로 응답한 데이터 (정규분포)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4376,6 +4380,48 @@
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4405,48 +4451,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17357,7 +17361,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17388,7 +17392,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>626</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -18982,8 +18986,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19408,7 +19412,7 @@
         <v>168</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>167</v>
@@ -19425,7 +19429,7 @@
         <v>272</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>354</v>
@@ -19442,7 +19446,7 @@
         <v>274</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>395</v>
@@ -19459,7 +19463,7 @@
         <v>276</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>381</v>
@@ -19476,7 +19480,7 @@
         <v>278</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>382</v>
@@ -19493,7 +19497,7 @@
         <v>280</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>358</v>
@@ -19510,7 +19514,7 @@
         <v>282</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>359</v>
@@ -19527,7 +19531,7 @@
         <v>284</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>357</v>
@@ -19544,7 +19548,7 @@
         <v>286</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>360</v>
@@ -19561,7 +19565,7 @@
         <v>288</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>361</v>
@@ -19584,8 +19588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A2D7A-9C76-4F3A-9C65-5B376F65F2C7}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:J49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19610,7 +19614,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="72" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -19627,15 +19631,15 @@
       <c r="A8" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="129" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
     </row>
     <row r="9" spans="1:8" ht="33">
       <c r="A9" s="13" t="s">
@@ -19719,13 +19723,13 @@
       <c r="A13" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="126" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
@@ -19795,13 +19799,13 @@
       <c r="A18" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="126" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
     </row>
     <row r="19" spans="1:14" ht="33">
       <c r="A19" s="13" t="s">
@@ -19840,7 +19844,7 @@
         <v>380</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -19867,16 +19871,16 @@
       <c r="A23" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="126" t="s">
         <v>335</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="114"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
     </row>
     <row r="24" spans="1:14" ht="33">
       <c r="A24" s="13" t="s">
@@ -19970,21 +19974,21 @@
       <c r="A28" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="130" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="117"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="131"/>
     </row>
     <row r="29" spans="1:14" ht="33">
       <c r="A29" s="35" t="s">
@@ -20122,13 +20126,13 @@
       <c r="A33" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="129" t="s">
         <v>351</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
     </row>
     <row r="34" spans="1:17" ht="33">
       <c r="A34" s="13" t="s">
@@ -20196,24 +20200,24 @@
       <c r="A38" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="129" t="s">
         <v>392</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="129"/>
+      <c r="O38" s="129"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
     </row>
     <row r="39" spans="1:17" ht="33">
       <c r="A39" s="13" t="s">
@@ -20297,28 +20301,28 @@
         <v>380</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="O40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q40" s="82" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="17.25" thickBot="1">
@@ -20359,7 +20363,7 @@
         <v>393</v>
       </c>
       <c r="M41" s="84" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="N41" s="84" t="s">
         <v>394</v>
@@ -20368,10 +20372,10 @@
         <v>365</v>
       </c>
       <c r="P41" s="84" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q41" s="85" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -20383,13 +20387,13 @@
       <c r="A43" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="129" t="s">
         <v>391</v>
       </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
     </row>
     <row r="44" spans="1:17" ht="33">
       <c r="A44" s="13" t="s">
@@ -20455,17 +20459,17 @@
       <c r="A48" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="B48" s="126" t="s">
         <v>383</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="114"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="127"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="128"/>
     </row>
     <row r="49" spans="1:10" ht="33">
       <c r="A49" s="13" t="s">
@@ -20621,7 +20625,7 @@
   <dimension ref="A1:BH245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M211" sqref="M211"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20647,22 +20651,22 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="73" t="s">
-        <v>515</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="73" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="73" t="s">
-        <v>532</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -20672,7 +20676,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="J9" s="47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -21431,17 +21435,17 @@
     </row>
     <row r="134" spans="1:14">
       <c r="J134" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="J135" s="74" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="J136" s="74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -21519,10 +21523,10 @@
         <v>352</v>
       </c>
       <c r="L141" s="66" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M141" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N141" s="67"/>
     </row>
@@ -21534,10 +21538,10 @@
         <v>353</v>
       </c>
       <c r="L142" s="66" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M142" s="66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N142" s="67"/>
     </row>
@@ -21550,25 +21554,25 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="J159" s="47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="J160" s="74" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="10:60">
       <c r="J161" s="86" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q161" s="47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162" spans="10:60">
@@ -21657,16 +21661,16 @@
         <v>354</v>
       </c>
       <c r="K163" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M163" s="49" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N163" s="51"/>
-      <c r="Q163" s="119" t="s">
+      <c r="Q163" s="133" t="s">
         <v>354</v>
       </c>
       <c r="R163" s="44" t="s">
@@ -21758,18 +21762,18 @@
         <v>355</v>
       </c>
       <c r="K164" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L164" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="M164" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="M164" s="49" t="s">
-        <v>547</v>
-      </c>
       <c r="N164" s="51"/>
-      <c r="Q164" s="119"/>
+      <c r="Q164" s="133"/>
       <c r="R164" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="S164" s="45">
         <v>2</v>
@@ -21837,17 +21841,17 @@
         <v>356</v>
       </c>
       <c r="K165" s="80" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L165" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M165" s="49" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N165" s="51"/>
-      <c r="Q165" s="118" t="s">
-        <v>561</v>
+      <c r="Q165" s="132" t="s">
+        <v>559</v>
       </c>
       <c r="R165" s="44" t="s">
         <v>427</v>
@@ -21918,16 +21922,16 @@
         <v>357</v>
       </c>
       <c r="K166" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L166" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M166" s="49" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N166" s="51"/>
-      <c r="Q166" s="119"/>
+      <c r="Q166" s="133"/>
       <c r="R166" s="44" t="s">
         <v>10</v>
       </c>
@@ -21997,16 +22001,16 @@
         <v>358</v>
       </c>
       <c r="K167" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L167" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M167" s="49" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N167" s="51"/>
-      <c r="Q167" s="119" t="s">
+      <c r="Q167" s="133" t="s">
         <v>356</v>
       </c>
       <c r="R167" s="44" t="s">
@@ -22078,18 +22082,18 @@
         <v>359</v>
       </c>
       <c r="K168" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L168" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M168" s="49" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="N168" s="51"/>
-      <c r="Q168" s="119"/>
+      <c r="Q168" s="133"/>
       <c r="R168" s="44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S168" s="44">
         <v>2</v>
@@ -22157,16 +22161,16 @@
         <v>360</v>
       </c>
       <c r="K169" s="81" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L169" s="49" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M169" s="49" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N169" s="51"/>
-      <c r="Q169" s="119" t="s">
+      <c r="Q169" s="133" t="s">
         <v>357</v>
       </c>
       <c r="R169" s="44" t="s">
@@ -22238,16 +22242,16 @@
         <v>361</v>
       </c>
       <c r="K170" s="81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L170" s="49" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M170" s="49" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N170" s="51"/>
-      <c r="Q170" s="119"/>
+      <c r="Q170" s="133"/>
       <c r="R170" s="44" t="s">
         <v>25</v>
       </c>
@@ -22313,8 +22317,8 @@
       </c>
     </row>
     <row r="171" spans="10:60">
-      <c r="Q171" s="118" t="s">
-        <v>562</v>
+      <c r="Q171" s="132" t="s">
+        <v>560</v>
       </c>
       <c r="R171" s="44" t="s">
         <v>427</v>
@@ -22382,11 +22386,11 @@
     </row>
     <row r="172" spans="10:60">
       <c r="J172" s="74" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q172" s="119"/>
+        <v>577</v>
+      </c>
+      <c r="Q172" s="133"/>
       <c r="R172" s="44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S172" s="45">
         <v>3</v>
@@ -22462,8 +22466,8 @@
       <c r="M173" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="Q173" s="118" t="s">
-        <v>563</v>
+      <c r="Q173" s="132" t="s">
+        <v>561</v>
       </c>
       <c r="R173" s="44" t="s">
         <v>427</v>
@@ -22531,20 +22535,20 @@
     </row>
     <row r="174" spans="10:60">
       <c r="J174" s="91" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K174" s="92" t="s">
         <v>372</v>
       </c>
       <c r="L174" s="49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M174" s="49" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q174" s="119"/>
+        <v>570</v>
+      </c>
+      <c r="Q174" s="133"/>
       <c r="R174" s="44" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S174" s="45">
         <v>3</v>
@@ -22609,18 +22613,18 @@
     </row>
     <row r="175" spans="10:60">
       <c r="J175" s="91" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K175" s="57" t="s">
         <v>373</v>
       </c>
       <c r="L175" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M175" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q175" s="118" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q175" s="132" t="s">
         <v>325</v>
       </c>
       <c r="R175" s="44" t="s">
@@ -22709,20 +22713,20 @@
     </row>
     <row r="176" spans="10:60">
       <c r="J176" s="91" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K176" s="57" t="s">
         <v>374</v>
       </c>
       <c r="L176" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M176" s="49" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q176" s="119"/>
+        <v>572</v>
+      </c>
+      <c r="Q176" s="133"/>
       <c r="R176" s="44" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S176" s="45">
         <v>2</v>
@@ -22787,18 +22791,18 @@
     </row>
     <row r="177" spans="10:38">
       <c r="J177" s="91" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K177" s="57" t="s">
         <v>375</v>
       </c>
       <c r="L177" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M177" s="49" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q177" s="118" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q177" s="132" t="s">
         <v>326</v>
       </c>
       <c r="R177" s="44" t="s">
@@ -22887,20 +22891,20 @@
     </row>
     <row r="178" spans="10:38">
       <c r="J178" s="91" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K178" s="57" t="s">
         <v>376</v>
       </c>
       <c r="L178" s="49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M178" s="49" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q178" s="119"/>
+        <v>574</v>
+      </c>
+      <c r="Q178" s="133"/>
       <c r="R178" s="44" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S178" s="45">
         <v>4</v>
@@ -22968,11 +22972,11 @@
     </row>
     <row r="180" spans="10:38">
       <c r="J180" s="74" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K180" s="79"/>
       <c r="Q180" s="47" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="10:38">
@@ -22992,19 +22996,19 @@
         <v>449</v>
       </c>
       <c r="R181" s="98" t="s">
+        <v>563</v>
+      </c>
+      <c r="S181" s="98" t="s">
+        <v>564</v>
+      </c>
+      <c r="T181" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="S181" s="98" t="s">
+      <c r="U181" s="98" t="s">
         <v>566</v>
       </c>
-      <c r="T181" s="98" t="s">
+      <c r="V181" s="98" t="s">
         <v>567</v>
-      </c>
-      <c r="U181" s="98" t="s">
-        <v>568</v>
-      </c>
-      <c r="V181" s="98" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="182" spans="10:38">
@@ -23012,14 +23016,14 @@
         <v>354</v>
       </c>
       <c r="K182" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L182" s="49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M182" s="49"/>
       <c r="Q182" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="R182" s="44">
         <f>ROUND(AVERAGE(교사보고_모의데이터!B2:G2),2)</f>
@@ -23047,14 +23051,14 @@
         <v>355</v>
       </c>
       <c r="K183" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L183" s="49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M183" s="49"/>
       <c r="Q183" s="44" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R183" s="44">
         <v>3.81</v>
@@ -23077,10 +23081,10 @@
         <v>381</v>
       </c>
       <c r="K184" s="80" t="s">
+        <v>581</v>
+      </c>
+      <c r="L184" s="49" t="s">
         <v>583</v>
-      </c>
-      <c r="L184" s="49" t="s">
-        <v>585</v>
       </c>
       <c r="M184" s="49"/>
     </row>
@@ -23089,10 +23093,10 @@
         <v>382</v>
       </c>
       <c r="K185" s="80" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L185" s="49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M185" s="49"/>
     </row>
@@ -23101,10 +23105,10 @@
         <v>357</v>
       </c>
       <c r="K186" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L186" s="49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M186" s="49"/>
     </row>
@@ -23113,10 +23117,10 @@
         <v>358</v>
       </c>
       <c r="K187" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L187" s="49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M187" s="49"/>
     </row>
@@ -23125,10 +23129,10 @@
         <v>359</v>
       </c>
       <c r="K188" s="80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L188" s="49" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M188" s="49"/>
     </row>
@@ -23137,10 +23141,10 @@
         <v>360</v>
       </c>
       <c r="K189" s="81" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L189" s="49" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M189" s="49"/>
     </row>
@@ -23149,37 +23153,37 @@
         <v>361</v>
       </c>
       <c r="K190" s="81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L190" s="49" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M190" s="49"/>
     </row>
     <row r="192" spans="10:38">
       <c r="J192" s="74" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="10:14">
       <c r="J193" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="K193" s="120" t="s">
-        <v>595</v>
-      </c>
-      <c r="L193" s="120"/>
-      <c r="M193" s="120"/>
+        <v>588</v>
+      </c>
+      <c r="K193" s="134" t="s">
+        <v>593</v>
+      </c>
+      <c r="L193" s="134"/>
+      <c r="M193" s="134"/>
       <c r="N193" s="100" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="194" spans="10:14">
       <c r="J194" s="99" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K194" s="97" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L194" s="44"/>
       <c r="M194" s="44"/>
@@ -23189,10 +23193,10 @@
     </row>
     <row r="195" spans="10:14">
       <c r="J195" s="99" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K195" s="97" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="L195" s="44"/>
       <c r="M195" s="44"/>
@@ -23202,10 +23206,10 @@
     </row>
     <row r="196" spans="10:14">
       <c r="J196" s="99" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K196" s="97" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L196" s="44"/>
       <c r="M196" s="44"/>
@@ -23215,306 +23219,306 @@
     </row>
     <row r="197" spans="10:14">
       <c r="J197" s="99" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K197" s="97" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L197" s="44"/>
       <c r="M197" s="44"/>
       <c r="N197" s="45" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="199" spans="10:14">
-      <c r="J199" s="122"/>
-      <c r="K199" s="123"/>
-      <c r="L199" s="123"/>
-      <c r="M199" s="124"/>
+      <c r="J199" s="112"/>
+      <c r="K199" s="113"/>
+      <c r="L199" s="113"/>
+      <c r="M199" s="114"/>
     </row>
     <row r="200" spans="10:14">
-      <c r="J200" s="125"/>
-      <c r="K200" s="126"/>
-      <c r="L200" s="126"/>
-      <c r="M200" s="127"/>
+      <c r="J200" s="115"/>
+      <c r="K200" s="116"/>
+      <c r="L200" s="116"/>
+      <c r="M200" s="117"/>
     </row>
     <row r="201" spans="10:14">
-      <c r="J201" s="125"/>
-      <c r="K201" s="126"/>
-      <c r="L201" s="126"/>
-      <c r="M201" s="127"/>
+      <c r="J201" s="115"/>
+      <c r="K201" s="116"/>
+      <c r="L201" s="116"/>
+      <c r="M201" s="117"/>
     </row>
     <row r="202" spans="10:14">
-      <c r="J202" s="125"/>
-      <c r="K202" s="126"/>
-      <c r="L202" s="126"/>
-      <c r="M202" s="127"/>
+      <c r="J202" s="115"/>
+      <c r="K202" s="116"/>
+      <c r="L202" s="116"/>
+      <c r="M202" s="117"/>
     </row>
     <row r="203" spans="10:14">
-      <c r="J203" s="125"/>
-      <c r="K203" s="126"/>
-      <c r="L203" s="126"/>
-      <c r="M203" s="127"/>
+      <c r="J203" s="115"/>
+      <c r="K203" s="116"/>
+      <c r="L203" s="116"/>
+      <c r="M203" s="117"/>
     </row>
     <row r="204" spans="10:14" ht="24">
-      <c r="J204" s="125"/>
-      <c r="K204" s="126"/>
-      <c r="L204" s="126"/>
-      <c r="M204" s="128" t="s">
-        <v>602</v>
+      <c r="J204" s="115"/>
+      <c r="K204" s="116"/>
+      <c r="L204" s="116"/>
+      <c r="M204" s="118" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="10:14">
-      <c r="J205" s="125"/>
-      <c r="K205" s="126"/>
-      <c r="L205" s="126"/>
-      <c r="M205" s="129" t="s">
-        <v>600</v>
+      <c r="J205" s="115"/>
+      <c r="K205" s="116"/>
+      <c r="L205" s="116"/>
+      <c r="M205" s="119" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="10:14">
-      <c r="J206" s="125"/>
-      <c r="K206" s="126"/>
-      <c r="L206" s="126"/>
-      <c r="M206" s="135" t="s">
-        <v>626</v>
+      <c r="J206" s="115"/>
+      <c r="K206" s="116"/>
+      <c r="L206" s="116"/>
+      <c r="M206" s="125" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="207" spans="10:14">
-      <c r="J207" s="125"/>
-      <c r="K207" s="126"/>
-      <c r="L207" s="126"/>
-      <c r="M207" s="135" t="s">
-        <v>627</v>
+      <c r="J207" s="115"/>
+      <c r="K207" s="116"/>
+      <c r="L207" s="116"/>
+      <c r="M207" s="125" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="10:14">
-      <c r="J208" s="125"/>
-      <c r="K208" s="126"/>
-      <c r="L208" s="126"/>
-      <c r="M208" s="127"/>
+      <c r="J208" s="115"/>
+      <c r="K208" s="116"/>
+      <c r="L208" s="116"/>
+      <c r="M208" s="117"/>
     </row>
     <row r="209" spans="10:13">
-      <c r="J209" s="125"/>
-      <c r="K209" s="126"/>
-      <c r="L209" s="126"/>
-      <c r="M209" s="127"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="116"/>
+      <c r="M209" s="117"/>
     </row>
     <row r="210" spans="10:13">
-      <c r="J210" s="125"/>
-      <c r="K210" s="126"/>
-      <c r="L210" s="126"/>
-      <c r="M210" s="127"/>
+      <c r="J210" s="115"/>
+      <c r="K210" s="116"/>
+      <c r="L210" s="116"/>
+      <c r="M210" s="117"/>
     </row>
     <row r="211" spans="10:13">
-      <c r="J211" s="125"/>
-      <c r="K211" s="126"/>
-      <c r="L211" s="126"/>
-      <c r="M211" s="127"/>
+      <c r="J211" s="115"/>
+      <c r="K211" s="116"/>
+      <c r="L211" s="116"/>
+      <c r="M211" s="117"/>
     </row>
     <row r="212" spans="10:13">
-      <c r="J212" s="125"/>
-      <c r="K212" s="126"/>
-      <c r="L212" s="126"/>
-      <c r="M212" s="127"/>
+      <c r="J212" s="115"/>
+      <c r="K212" s="116"/>
+      <c r="L212" s="116"/>
+      <c r="M212" s="117"/>
     </row>
     <row r="213" spans="10:13">
-      <c r="J213" s="130"/>
-      <c r="K213" s="131"/>
-      <c r="L213" s="131"/>
-      <c r="M213" s="132"/>
+      <c r="J213" s="120"/>
+      <c r="K213" s="121"/>
+      <c r="L213" s="121"/>
+      <c r="M213" s="122"/>
     </row>
     <row r="215" spans="10:13">
-      <c r="J215" s="133"/>
-      <c r="K215" s="123"/>
-      <c r="L215" s="123"/>
-      <c r="M215" s="124"/>
+      <c r="J215" s="123"/>
+      <c r="K215" s="113"/>
+      <c r="L215" s="113"/>
+      <c r="M215" s="114"/>
     </row>
     <row r="216" spans="10:13">
-      <c r="J216" s="125"/>
-      <c r="K216" s="126"/>
-      <c r="L216" s="126"/>
-      <c r="M216" s="127"/>
+      <c r="J216" s="115"/>
+      <c r="K216" s="116"/>
+      <c r="L216" s="116"/>
+      <c r="M216" s="117"/>
     </row>
     <row r="217" spans="10:13">
-      <c r="J217" s="125"/>
-      <c r="K217" s="126"/>
-      <c r="L217" s="126"/>
-      <c r="M217" s="127"/>
+      <c r="J217" s="115"/>
+      <c r="K217" s="116"/>
+      <c r="L217" s="116"/>
+      <c r="M217" s="117"/>
     </row>
     <row r="218" spans="10:13">
-      <c r="J218" s="125"/>
-      <c r="K218" s="126"/>
-      <c r="L218" s="126"/>
-      <c r="M218" s="127"/>
+      <c r="J218" s="115"/>
+      <c r="K218" s="116"/>
+      <c r="L218" s="116"/>
+      <c r="M218" s="117"/>
     </row>
     <row r="219" spans="10:13">
-      <c r="J219" s="125"/>
-      <c r="K219" s="126"/>
-      <c r="L219" s="126"/>
-      <c r="M219" s="127"/>
+      <c r="J219" s="115"/>
+      <c r="K219" s="116"/>
+      <c r="L219" s="116"/>
+      <c r="M219" s="117"/>
     </row>
     <row r="220" spans="10:13" ht="24">
-      <c r="J220" s="125"/>
-      <c r="K220" s="126"/>
-      <c r="L220" s="126"/>
-      <c r="M220" s="134" t="s">
+      <c r="J220" s="115"/>
+      <c r="K220" s="116"/>
+      <c r="L220" s="116"/>
+      <c r="M220" s="124" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="221" spans="10:13">
+      <c r="J221" s="115"/>
+      <c r="K221" s="116"/>
+      <c r="L221" s="116"/>
+      <c r="M221" s="125" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="222" spans="10:13">
+      <c r="J222" s="115"/>
+      <c r="K222" s="116"/>
+      <c r="L222" s="116"/>
+      <c r="M222" s="125" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="221" spans="10:13">
-      <c r="J221" s="125"/>
-      <c r="K221" s="126"/>
-      <c r="L221" s="126"/>
-      <c r="M221" s="135" t="s">
+    <row r="223" spans="10:13">
+      <c r="J223" s="115"/>
+      <c r="K223" s="116"/>
+      <c r="L223" s="116"/>
+      <c r="M223" s="117"/>
+    </row>
+    <row r="224" spans="10:13">
+      <c r="J224" s="115"/>
+      <c r="K224" s="116"/>
+      <c r="L224" s="116"/>
+      <c r="M224" s="117"/>
+    </row>
+    <row r="225" spans="10:13">
+      <c r="J225" s="115"/>
+      <c r="K225" s="116"/>
+      <c r="L225" s="116"/>
+      <c r="M225" s="117"/>
+    </row>
+    <row r="226" spans="10:13">
+      <c r="J226" s="115"/>
+      <c r="K226" s="116"/>
+      <c r="L226" s="116"/>
+      <c r="M226" s="117"/>
+    </row>
+    <row r="227" spans="10:13">
+      <c r="J227" s="115"/>
+      <c r="K227" s="116"/>
+      <c r="L227" s="116"/>
+      <c r="M227" s="117"/>
+    </row>
+    <row r="228" spans="10:13">
+      <c r="J228" s="115"/>
+      <c r="K228" s="116"/>
+      <c r="L228" s="116"/>
+      <c r="M228" s="117"/>
+    </row>
+    <row r="229" spans="10:13">
+      <c r="J229" s="120"/>
+      <c r="K229" s="121"/>
+      <c r="L229" s="121"/>
+      <c r="M229" s="122"/>
+    </row>
+    <row r="231" spans="10:13">
+      <c r="J231" s="123"/>
+      <c r="K231" s="113"/>
+      <c r="L231" s="113"/>
+      <c r="M231" s="114"/>
+    </row>
+    <row r="232" spans="10:13">
+      <c r="J232" s="115"/>
+      <c r="K232" s="116"/>
+      <c r="L232" s="116"/>
+      <c r="M232" s="117"/>
+    </row>
+    <row r="233" spans="10:13">
+      <c r="J233" s="115"/>
+      <c r="K233" s="116"/>
+      <c r="L233" s="116"/>
+      <c r="M233" s="117"/>
+    </row>
+    <row r="234" spans="10:13">
+      <c r="J234" s="115"/>
+      <c r="K234" s="116"/>
+      <c r="L234" s="116"/>
+      <c r="M234" s="117"/>
+    </row>
+    <row r="235" spans="10:13">
+      <c r="J235" s="115"/>
+      <c r="K235" s="116"/>
+      <c r="L235" s="116"/>
+      <c r="M235" s="117"/>
+    </row>
+    <row r="236" spans="10:13" ht="24">
+      <c r="J236" s="115"/>
+      <c r="K236" s="116"/>
+      <c r="L236" s="116"/>
+      <c r="M236" s="118" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="222" spans="10:13">
-      <c r="J222" s="125"/>
-      <c r="K222" s="126"/>
-      <c r="L222" s="126"/>
-      <c r="M222" s="135" t="s">
+    <row r="237" spans="10:13">
+      <c r="J237" s="115"/>
+      <c r="K237" s="116"/>
+      <c r="L237" s="116"/>
+      <c r="M237" s="125" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="223" spans="10:13">
-      <c r="J223" s="125"/>
-      <c r="K223" s="126"/>
-      <c r="L223" s="126"/>
-      <c r="M223" s="127"/>
-    </row>
-    <row r="224" spans="10:13">
-      <c r="J224" s="125"/>
-      <c r="K224" s="126"/>
-      <c r="L224" s="126"/>
-      <c r="M224" s="127"/>
-    </row>
-    <row r="225" spans="10:13">
-      <c r="J225" s="125"/>
-      <c r="K225" s="126"/>
-      <c r="L225" s="126"/>
-      <c r="M225" s="127"/>
-    </row>
-    <row r="226" spans="10:13">
-      <c r="J226" s="125"/>
-      <c r="K226" s="126"/>
-      <c r="L226" s="126"/>
-      <c r="M226" s="127"/>
-    </row>
-    <row r="227" spans="10:13">
-      <c r="J227" s="125"/>
-      <c r="K227" s="126"/>
-      <c r="L227" s="126"/>
-      <c r="M227" s="127"/>
-    </row>
-    <row r="228" spans="10:13">
-      <c r="J228" s="125"/>
-      <c r="K228" s="126"/>
-      <c r="L228" s="126"/>
-      <c r="M228" s="127"/>
-    </row>
-    <row r="229" spans="10:13">
-      <c r="J229" s="130"/>
-      <c r="K229" s="131"/>
-      <c r="L229" s="131"/>
-      <c r="M229" s="132"/>
-    </row>
-    <row r="231" spans="10:13">
-      <c r="J231" s="133"/>
-      <c r="K231" s="123"/>
-      <c r="L231" s="123"/>
-      <c r="M231" s="124"/>
-    </row>
-    <row r="232" spans="10:13">
-      <c r="J232" s="125"/>
-      <c r="K232" s="126"/>
-      <c r="L232" s="126"/>
-      <c r="M232" s="127"/>
-    </row>
-    <row r="233" spans="10:13">
-      <c r="J233" s="125"/>
-      <c r="K233" s="126"/>
-      <c r="L233" s="126"/>
-      <c r="M233" s="127"/>
-    </row>
-    <row r="234" spans="10:13">
-      <c r="J234" s="125"/>
-      <c r="K234" s="126"/>
-      <c r="L234" s="126"/>
-      <c r="M234" s="127"/>
-    </row>
-    <row r="235" spans="10:13">
-      <c r="J235" s="125"/>
-      <c r="K235" s="126"/>
-      <c r="L235" s="126"/>
-      <c r="M235" s="127"/>
-    </row>
-    <row r="236" spans="10:13" ht="24">
-      <c r="J236" s="125"/>
-      <c r="K236" s="126"/>
-      <c r="L236" s="126"/>
-      <c r="M236" s="128" t="s">
+    <row r="238" spans="10:13">
+      <c r="J238" s="115"/>
+      <c r="K238" s="116"/>
+      <c r="L238" s="116"/>
+      <c r="M238" s="125" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="237" spans="10:13">
-      <c r="J237" s="125"/>
-      <c r="K237" s="126"/>
-      <c r="L237" s="126"/>
-      <c r="M237" s="135" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="238" spans="10:13">
-      <c r="J238" s="125"/>
-      <c r="K238" s="126"/>
-      <c r="L238" s="126"/>
-      <c r="M238" s="135" t="s">
-        <v>625</v>
-      </c>
-    </row>
     <row r="239" spans="10:13">
-      <c r="J239" s="125"/>
-      <c r="K239" s="126"/>
-      <c r="L239" s="126"/>
-      <c r="M239" s="127"/>
+      <c r="J239" s="115"/>
+      <c r="K239" s="116"/>
+      <c r="L239" s="116"/>
+      <c r="M239" s="117"/>
     </row>
     <row r="240" spans="10:13">
-      <c r="J240" s="125"/>
-      <c r="K240" s="126"/>
-      <c r="L240" s="126"/>
-      <c r="M240" s="127"/>
+      <c r="J240" s="115"/>
+      <c r="K240" s="116"/>
+      <c r="L240" s="116"/>
+      <c r="M240" s="117"/>
     </row>
     <row r="241" spans="10:13">
-      <c r="J241" s="125"/>
-      <c r="K241" s="126"/>
-      <c r="L241" s="126"/>
-      <c r="M241" s="127"/>
+      <c r="J241" s="115"/>
+      <c r="K241" s="116"/>
+      <c r="L241" s="116"/>
+      <c r="M241" s="117"/>
     </row>
     <row r="242" spans="10:13">
-      <c r="J242" s="125"/>
-      <c r="K242" s="126"/>
-      <c r="L242" s="126"/>
-      <c r="M242" s="127"/>
+      <c r="J242" s="115"/>
+      <c r="K242" s="116"/>
+      <c r="L242" s="116"/>
+      <c r="M242" s="117"/>
     </row>
     <row r="243" spans="10:13">
-      <c r="J243" s="125"/>
-      <c r="K243" s="126"/>
-      <c r="L243" s="126"/>
-      <c r="M243" s="127"/>
+      <c r="J243" s="115"/>
+      <c r="K243" s="116"/>
+      <c r="L243" s="116"/>
+      <c r="M243" s="117"/>
     </row>
     <row r="244" spans="10:13">
-      <c r="J244" s="125"/>
-      <c r="K244" s="126"/>
-      <c r="L244" s="126"/>
-      <c r="M244" s="127"/>
+      <c r="J244" s="115"/>
+      <c r="K244" s="116"/>
+      <c r="L244" s="116"/>
+      <c r="M244" s="117"/>
     </row>
     <row r="245" spans="10:13">
-      <c r="J245" s="130"/>
-      <c r="K245" s="131"/>
-      <c r="L245" s="131"/>
-      <c r="M245" s="132"/>
+      <c r="J245" s="120"/>
+      <c r="K245" s="121"/>
+      <c r="L245" s="121"/>
+      <c r="M245" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -23553,45 +23557,45 @@
     <row r="4" spans="2:14">
       <c r="D4" s="109"/>
       <c r="E4" s="110" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F4" s="109"/>
       <c r="H4" s="102"/>
       <c r="I4" s="103" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J4" s="102"/>
       <c r="L4" s="102"/>
       <c r="M4" s="103" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N4" s="102"/>
     </row>
     <row r="5" spans="2:14">
       <c r="D5" s="111" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E5" s="109"/>
       <c r="F5" s="109"/>
       <c r="H5" s="106" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I5" s="102"/>
       <c r="J5" s="102"/>
       <c r="L5" s="108" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M5" s="102"/>
       <c r="N5" s="102"/>
     </row>
     <row r="6" spans="2:14">
       <c r="D6" s="111" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E6" s="109"/>
       <c r="F6" s="109"/>
       <c r="H6" s="106" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I6" s="102"/>
       <c r="J6" s="102"/>
@@ -23604,7 +23608,7 @@
       <c r="E7" s="109"/>
       <c r="F7" s="109"/>
       <c r="H7" s="106" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I7" s="102"/>
       <c r="J7" s="102"/>
@@ -23613,55 +23617,55 @@
       <c r="N7" s="102"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="121" t="s">
-        <v>603</v>
+      <c r="B9" s="135" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="121"/>
+      <c r="B10" s="135"/>
     </row>
     <row r="12" spans="2:14">
       <c r="D12" s="109"/>
       <c r="E12" s="110" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F12" s="109"/>
       <c r="H12" s="104"/>
       <c r="I12" s="105" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J12" s="104"/>
       <c r="L12" s="102"/>
       <c r="M12" s="103" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="N12" s="102"/>
     </row>
     <row r="13" spans="2:14">
       <c r="D13" s="111" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" s="109"/>
       <c r="H13" s="107" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I13" s="104"/>
       <c r="J13" s="104"/>
       <c r="L13" s="108" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
     </row>
     <row r="14" spans="2:14">
       <c r="D14" s="111" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
       <c r="H14" s="107" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I14" s="104"/>
       <c r="J14" s="104"/>
@@ -23674,7 +23678,7 @@
       <c r="E15" s="109"/>
       <c r="F15" s="109"/>
       <c r="H15" s="107" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I15" s="104"/>
       <c r="J15" s="104"/>
@@ -26561,7 +26565,7 @@
         <v>423</v>
       </c>
       <c r="F1" s="87" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G1" s="45" t="s">
         <v>401</v>
@@ -41434,7 +41438,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>222</v>
